--- a/牛顿环.xlsx
+++ b/牛顿环.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-公式保护branch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EF0D29-9E6F-4694-A3E2-F16CFA322132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49342A86-9AA1-4268-932B-904FEA73DA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>干涉级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>红色格子：填入你的实验数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Authored by Axolyz.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -124,15 +120,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Posted on https://github.com/Axolyz/fuck-university-physics-experiments.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>「この幻想郷では常識に囚われてはいけないのですね！」</t>
+    <t>Posted on https://github.com/Axolyz/fuck-nku-physics-experiments.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1505,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H14 A17:I17"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1528,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1763,7 +1759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>AVERAGE(B9:I9)</f>
         <v>25</v>
@@ -1800,31 +1796,37 @@
         <f>H17/(4*A8)*1000000</f>
         <v>12.043461339604207</v>
       </c>
+      <c r="J17" s="1" t="str">
+        <f>TEXT(I17,"0.0000")</f>
+        <v>12.0435</v>
+      </c>
+      <c r="K17" s="1">
+        <f>J17+1</f>
+        <v>13.0435</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>24</v>
-      </c>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/牛顿环.xlsx
+++ b/牛顿环.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jin_m\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49342A86-9AA1-4268-932B-904FEA73DA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F758D8FD-3A44-4879-A6D5-90CEED386A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>干涉级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -129,6 +151,14 @@
   </si>
   <si>
     <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小二乘参数表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关系数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +229,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -223,12 +259,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -254,10 +318,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1" xr:uid="{B57F8707-B626-4625-9352-0713A947F2F6}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -275,7 +351,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -293,8 +369,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.7973170020414114E-2"/>
-          <c:y val="0.18446689113355783"/>
+          <c:x val="7.8612558657570469E-2"/>
+          <c:y val="0.17104877209810798"/>
           <c:w val="0.89113794109069699"/>
           <c:h val="0.72934559947683308"/>
         </c:manualLayout>
@@ -389,10 +465,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$H$9</c:f>
+              <c:f>Sheet1!$B$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -414,35 +490,41 @@
                 <c:pt idx="6">
                   <c:v>40</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$H$13</c:f>
+              <c:f>Sheet1!$B$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>26.481316000000046</c:v>
+                  <c:v>23.639044000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.192399999999999</c:v>
+                  <c:v>34.904463999999976</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.748324000000039</c:v>
+                  <c:v>47.41699599999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.444100000000013</c:v>
+                  <c:v>59.752900000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.777960999999976</c:v>
+                  <c:v>71.723961000000017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.088900000000095</c:v>
+                  <c:v>84.419343999999981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.863681000000014</c:v>
+                  <c:v>98.327056000000013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.85177600000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,16 +1283,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>137159</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>144781</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>255525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>54943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>318134</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>279094</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>127815</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1501,58 +1583,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.9140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>589.29999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1577,160 +1659,181 @@
       <c r="H9" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="4">
-        <v>36.468000000000004</v>
+        <v>19.523</v>
       </c>
       <c r="C10" s="4">
-        <v>36.994</v>
+        <v>19.890999999999998</v>
       </c>
       <c r="D10" s="4">
-        <v>37.334000000000003</v>
+        <v>20.366</v>
       </c>
       <c r="E10" s="4">
-        <v>38.087000000000003</v>
+        <v>20.774000000000001</v>
       </c>
       <c r="F10" s="4">
-        <v>38.1</v>
+        <v>20.792000000000002</v>
       </c>
       <c r="G10" s="4">
-        <v>38.404000000000003</v>
+        <v>21.100999999999999</v>
       </c>
       <c r="H10" s="4">
-        <v>38.734000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21.631</v>
+      </c>
+      <c r="I10" s="4">
+        <v>21.937000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>31.321999999999999</v>
+        <v>14.661</v>
       </c>
       <c r="C11" s="4">
-        <v>30.814</v>
+        <v>13.983000000000001</v>
       </c>
       <c r="D11" s="4">
-        <v>30.352</v>
+        <v>13.48</v>
       </c>
       <c r="E11" s="4">
-        <v>30.377000000000002</v>
+        <v>13.044</v>
       </c>
       <c r="F11" s="4">
-        <v>29.569000000000003</v>
+        <v>12.323</v>
       </c>
       <c r="G11" s="4">
-        <v>29.233999999999998</v>
+        <v>11.913</v>
       </c>
       <c r="H11" s="4">
-        <v>28.943000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11.715</v>
+      </c>
+      <c r="I11" s="4">
+        <v>11.361000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="7">
-        <f>B10-B11</f>
-        <v>5.1460000000000043</v>
+        <f t="shared" ref="B12:G12" si="0">B10-B11</f>
+        <v>4.8620000000000001</v>
       </c>
       <c r="C12" s="7">
-        <f t="shared" ref="C12:H12" si="0">C10-C11</f>
-        <v>6.18</v>
+        <f t="shared" si="0"/>
+        <v>5.9079999999999977</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>6.9820000000000029</v>
+        <v>6.8859999999999992</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>7.7100000000000009</v>
+        <v>7.73</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>8.5309999999999988</v>
+        <v>8.4690000000000012</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>9.1700000000000053</v>
+        <v>9.1879999999999988</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="0"/>
-        <v>9.7910000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H12:I12" si="1">H10-H11</f>
+        <v>9.9160000000000004</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>10.576000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="7">
-        <f>B12^2</f>
-        <v>26.481316000000046</v>
+        <f t="shared" ref="B13:G13" si="2">B12^2</f>
+        <v>23.639044000000002</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" ref="C13:H13" si="1">C12^2</f>
-        <v>38.192399999999999</v>
+        <f t="shared" si="2"/>
+        <v>34.904463999999976</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="1"/>
-        <v>48.748324000000039</v>
+        <f t="shared" si="2"/>
+        <v>47.41699599999999</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="1"/>
-        <v>59.444100000000013</v>
+        <f t="shared" si="2"/>
+        <v>59.752900000000004</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="1"/>
-        <v>72.777960999999976</v>
+        <f t="shared" si="2"/>
+        <v>71.723961000000017</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="1"/>
-        <v>84.088900000000095</v>
+        <f t="shared" si="2"/>
+        <v>84.419343999999981</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="1"/>
-        <v>95.863681000000014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H13:I14" si="3">H12^2</f>
+        <v>98.327056000000013</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="3"/>
+        <v>111.85177600000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="8">
         <f>(B13-C17*B9-D17)^2</f>
-        <v>0.1543175414130922</v>
+        <v>0.69605976761101918</v>
       </c>
       <c r="C14" s="8">
         <f>(C13-C17*C9-D17)^2</f>
-        <v>0.28469603020927209</v>
+        <v>9.4524316625158353E-2</v>
       </c>
       <c r="D14" s="8">
         <f>(D13-C17*D9-D17)^2</f>
-        <v>0.23122098147674602</v>
+        <v>4.0838794700155993E-2</v>
       </c>
       <c r="E14" s="8">
         <f>(E13-C17*E9-D17)^2</f>
-        <v>1.8371796414760422</v>
+        <v>7.4721394004587563E-2</v>
       </c>
       <c r="F14" s="8">
         <f>(F13-C17*F9-D17)^2</f>
-        <v>0.16653534935799921</v>
+        <v>0.50333516389993316</v>
       </c>
       <c r="G14" s="8">
         <f>(G13-C17*G9-D17)^2</f>
-        <v>2.2105402561326547E-2</v>
-      </c>
-      <c r="H14" s="8">
-        <f>(H13-C17*H9-D17)^2</f>
-        <v>0.12468828632235962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.17745005803891845</v>
+      </c>
+      <c r="H14" s="11">
+        <f>(H13-(C17*H9+D17))^2</f>
+        <v>1.1648749987891041</v>
+      </c>
+      <c r="I14" s="11">
+        <f>(I13-(D17*I9+E17))^2</f>
+        <v>723214.80755183031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1759,26 +1862,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <f>AVERAGE(B9:I9)</f>
+        <f>AVERAGE(B9:H9)</f>
         <v>25</v>
       </c>
       <c r="B17" s="7">
         <f>AVERAGE(B13:H13)</f>
-        <v>60.799526000000029</v>
+        <v>60.026252142857139</v>
       </c>
       <c r="C17" s="7">
         <f>SLOPE(B13:H13,B9:H9)</f>
-        <v>2.3140695142857139</v>
+        <v>2.4814340071428576</v>
       </c>
       <c r="D17" s="9">
         <f>INTERCEPT(B13:H13,B9:H9)</f>
-        <v>2.9477881428571777</v>
+        <v>-2.0095980357142977</v>
       </c>
       <c r="E17" s="7">
         <f>C17/(4*A8)*1000000</f>
-        <v>981.70266175365441</v>
+        <v>1052.7040586894866</v>
       </c>
       <c r="F17" s="7">
         <f>VAR(B9:H9)*6</f>
@@ -1786,49 +1889,108 @@
       </c>
       <c r="G17" s="7">
         <f>SQRT(SUM(B14:H14)/5)</f>
-        <v>0.75109829354310709</v>
+        <v>0.74186312668427956</v>
       </c>
       <c r="H17" s="7">
         <f>G17/SQRT(F17)</f>
-        <v>2.8388847069715034E-2</v>
-      </c>
-      <c r="I17" s="7">
+        <v>2.8039790572220131E-2</v>
+      </c>
+      <c r="I17" s="13">
         <f>H17/(4*A8)*1000000</f>
-        <v>12.043461339604207</v>
-      </c>
-      <c r="J17" s="1" t="str">
+        <v>11.895380354751456</v>
+      </c>
+      <c r="J17" s="10" t="str">
         <f>TEXT(I17,"0.0000")</f>
-        <v>12.0435</v>
-      </c>
-      <c r="K17" s="1">
+        <v>11.8954</v>
+      </c>
+      <c r="K17" s="10">
         <f>J17+1</f>
-        <v>13.0435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12.8954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I18" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="15">
+        <f>INDEX(B25:C29,3,1)</f>
+        <v>0.99916450433205828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
     </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" cm="1">
+        <f t="array" ref="B25:C29">LINEST(B13:I13,B9:I9,,TRUE)</f>
+        <v>2.5180480690476199</v>
+      </c>
+      <c r="C25" s="10">
+        <v>-2.7418792738095448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="10">
+        <v>2.9726377856425769E-2</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.88557668621125796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="10">
+        <v>0.99916450433205828</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.96324473395194343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="10">
+        <v>7175.3657810833029</v>
+      </c>
+      <c r="C28" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="10">
+        <v>6657.5943819361692</v>
+      </c>
+      <c r="C29" s="10">
+        <v>5.5670425049169019</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/牛顿环.xlsx
+++ b/牛顿环.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jin_m\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验报告\实验数据处理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F758D8FD-3A44-4879-A6D5-90CEED386A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9D37B4-998E-4190-8F75-5EB9811EDA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -292,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -318,18 +318,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Style 1" xfId="1" xr:uid="{B57F8707-B626-4625-9352-0713A947F2F6}"/>
@@ -503,28 +502,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>23.639044000000002</c:v>
+                  <c:v>23.755876000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.904463999999976</c:v>
+                  <c:v>36.108081000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.41699599999999</c:v>
+                  <c:v>47.403224999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.752900000000004</c:v>
+                  <c:v>59.13610000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.723961000000017</c:v>
+                  <c:v>71.961288999999979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.419343999999981</c:v>
+                  <c:v>84.437720999999968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.327056000000013</c:v>
+                  <c:v>98.34688899999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111.85177600000002</c:v>
+                  <c:v>111.76718399999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1585,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1668,19 +1667,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="4">
-        <v>19.523</v>
+        <v>19.533000000000001</v>
       </c>
       <c r="C10" s="4">
-        <v>19.890999999999998</v>
+        <v>19.991</v>
       </c>
       <c r="D10" s="4">
         <v>20.366</v>
       </c>
       <c r="E10" s="4">
-        <v>20.774000000000001</v>
+        <v>20.734000000000002</v>
       </c>
       <c r="F10" s="4">
-        <v>20.792000000000002</v>
+        <v>20.795999999999999</v>
       </c>
       <c r="G10" s="4">
         <v>21.100999999999999</v>
@@ -1689,7 +1688,7 @@
         <v>21.631</v>
       </c>
       <c r="I10" s="4">
-        <v>21.937000000000001</v>
+        <v>21.934999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1697,28 +1696,28 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>14.661</v>
+        <v>14.659000000000001</v>
       </c>
       <c r="C11" s="4">
-        <v>13.983000000000001</v>
+        <v>13.981999999999999</v>
       </c>
       <c r="D11" s="4">
-        <v>13.48</v>
+        <v>13.481</v>
       </c>
       <c r="E11" s="4">
         <v>13.044</v>
       </c>
       <c r="F11" s="4">
-        <v>12.323</v>
+        <v>12.313000000000001</v>
       </c>
       <c r="G11" s="4">
-        <v>11.913</v>
+        <v>11.912000000000001</v>
       </c>
       <c r="H11" s="4">
-        <v>11.715</v>
+        <v>11.714</v>
       </c>
       <c r="I11" s="4">
-        <v>11.361000000000001</v>
+        <v>11.363</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1727,35 +1726,35 @@
       </c>
       <c r="B12" s="7">
         <f t="shared" ref="B12:G12" si="0">B10-B11</f>
-        <v>4.8620000000000001</v>
+        <v>4.8740000000000006</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>5.9079999999999977</v>
+        <v>6.0090000000000003</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>6.8859999999999992</v>
+        <v>6.8849999999999998</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>7.73</v>
+        <v>7.6900000000000013</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>8.4690000000000012</v>
+        <v>8.4829999999999988</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>9.1879999999999988</v>
+        <v>9.1889999999999983</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" ref="H12:I12" si="1">H10-H11</f>
-        <v>9.9160000000000004</v>
+        <v>9.9169999999999998</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="1"/>
-        <v>10.576000000000001</v>
+        <f>I10-I11</f>
+        <v>10.571999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1764,35 +1763,35 @@
       </c>
       <c r="B13" s="7">
         <f t="shared" ref="B13:G13" si="2">B12^2</f>
-        <v>23.639044000000002</v>
+        <v>23.755876000000004</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="2"/>
-        <v>34.904463999999976</v>
+        <v>36.108081000000006</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="2"/>
-        <v>47.41699599999999</v>
+        <v>47.403224999999999</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="2"/>
-        <v>59.752900000000004</v>
+        <v>59.13610000000002</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="2"/>
-        <v>71.723961000000017</v>
+        <v>71.961288999999979</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>84.419343999999981</v>
+        <v>84.437720999999968</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" ref="H13:I14" si="3">H12^2</f>
-        <v>98.327056000000013</v>
+        <f t="shared" ref="H13:I13" si="3">H12^2</f>
+        <v>98.34688899999999</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="3"/>
-        <v>111.85177600000002</v>
+        <v>111.76718399999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1801,35 +1800,35 @@
       </c>
       <c r="B14" s="8">
         <f>(B13-C17*B9-D17)^2</f>
-        <v>0.69605976761101918</v>
+        <v>0.30798349532680253</v>
       </c>
       <c r="C14" s="8">
         <f>(C13-C17*C9-D17)^2</f>
-        <v>9.4524316625158353E-2</v>
+        <v>0.34349269680626232</v>
       </c>
       <c r="D14" s="8">
         <f>(D13-C17*D9-D17)^2</f>
-        <v>4.0838794700155993E-2</v>
+        <v>0.19347559427765026</v>
       </c>
       <c r="E14" s="8">
         <f>(E13-C17*E9-D17)^2</f>
-        <v>7.4721394004587563E-2</v>
+        <v>1.056925281293027</v>
       </c>
       <c r="F14" s="8">
         <f>(F13-C17*F9-D17)^2</f>
-        <v>0.50333516389993316</v>
+        <v>0.27453913409468156</v>
       </c>
       <c r="G14" s="8">
         <f>(G13-C17*G9-D17)^2</f>
-        <v>0.17745005803891845</v>
-      </c>
-      <c r="H14" s="11">
+        <v>0.13587917726430884</v>
+      </c>
+      <c r="H14" s="10">
         <f>(H13-(C17*H9+D17))^2</f>
-        <v>1.1648749987891041</v>
-      </c>
-      <c r="I14" s="11">
+        <v>1.4870947991203725</v>
+      </c>
+      <c r="I14" s="10">
         <f>(I13-(D17*I9+E17))^2</f>
-        <v>723214.80755183031</v>
+        <v>754772.29251471802</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1869,47 +1868,47 @@
       </c>
       <c r="B17" s="7">
         <f>AVERAGE(B13:H13)</f>
-        <v>60.026252142857139</v>
+        <v>60.164168714285708</v>
       </c>
       <c r="C17" s="7">
         <f>SLOPE(B13:H13,B9:H9)</f>
-        <v>2.4814340071428576</v>
+        <v>2.464217021428571</v>
       </c>
       <c r="D17" s="9">
         <f>INTERCEPT(B13:H13,B9:H9)</f>
-        <v>-2.0095980357142977</v>
+        <v>-1.441256821428567</v>
       </c>
       <c r="E17" s="7">
         <f>C17/(4*A8)*1000000</f>
-        <v>1052.7040586894866</v>
+        <v>1045.4000599985454</v>
       </c>
       <c r="F17" s="7">
-        <f>VAR(B9:H9)*6</f>
-        <v>700</v>
+        <f>VAR(B9:I9)*7</f>
+        <v>1050</v>
       </c>
       <c r="G17" s="7">
         <f>SQRT(SUM(B14:H14)/5)</f>
-        <v>0.74186312668427956</v>
+        <v>0.8717098345416443</v>
       </c>
       <c r="H17" s="7">
         <f>G17/SQRT(F17)</f>
-        <v>2.8039790572220131E-2</v>
-      </c>
-      <c r="I17" s="13">
+        <v>2.6901549532935318E-2</v>
+      </c>
+      <c r="I17" s="11">
         <f>H17/(4*A8)*1000000</f>
-        <v>11.895380354751456</v>
-      </c>
-      <c r="J17" s="10" t="str">
+        <v>11.412501923016849</v>
+      </c>
+      <c r="J17" t="str">
         <f>TEXT(I17,"0.0000")</f>
-        <v>11.8954</v>
-      </c>
-      <c r="K17" s="10">
+        <v>11.4125</v>
+      </c>
+      <c r="K17">
         <f>J17+1</f>
-        <v>12.8954</v>
+        <v>12.4125</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1917,9 +1916,9 @@
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="13">
         <f>INDEX(B25:C29,3,1)</f>
-        <v>0.99916450433205828</v>
+        <v>0.99894668205671266</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1941,50 +1940,50 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" cm="1">
+      <c r="B25" cm="1">
         <f t="array" ref="B25:C29">LINEST(B13:I13,B9:I9,,TRUE)</f>
-        <v>2.5180480690476199</v>
-      </c>
-      <c r="C25" s="10">
-        <v>-2.7418792738095448</v>
+        <v>2.502861602380952</v>
+      </c>
+      <c r="C25">
+        <v>-2.214148440476194</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="10">
-        <v>2.9726377856425769E-2</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.88557668621125796</v>
+      <c r="B26">
+        <v>3.3179496958049087E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.98844834403240567</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="10">
-        <v>0.99916450433205828</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0.96324473395194343</v>
+      <c r="B27">
+        <v>0.99894668205671266</v>
+      </c>
+      <c r="C27">
+        <v>1.0751385814436427</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="10">
-        <v>7175.3657810833029</v>
-      </c>
-      <c r="C28" s="10">
+      <c r="B28">
+        <v>5690.2857589555315</v>
+      </c>
+      <c r="C28">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="10">
-        <v>6657.5943819361692</v>
-      </c>
-      <c r="C29" s="10">
-        <v>5.5670425049169019</v>
+      <c r="B29">
+        <v>6577.5320107065927</v>
+      </c>
+      <c r="C29">
+        <v>6.9355378158518883</v>
       </c>
     </row>
   </sheetData>

--- a/牛顿环.xlsx
+++ b/牛顿环.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验报告\实验数据处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9D37B4-998E-4190-8F75-5EB9811EDA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD99F68D-FD51-45E0-8F2D-C9321EB7E36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>干涉级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,18 +134,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Posted on https://github.com/Axolyz/fuck-nku-physics-experiments.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -154,11 +142,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最小二乘参数表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>相关系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附：最小二乘参数表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,13 +179,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -236,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -259,40 +240,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -310,29 +263,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1" xr:uid="{B57F8707-B626-4625-9352-0713A947F2F6}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,7 +298,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1316,6 +1264,67 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7F9857-BA17-98D2-27E6-86A3A244D70C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3055620" y="3413760"/>
+          <a:ext cx="5280660" cy="937260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1582,58 +1591,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.9140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.9140625" style="1"/>
+    <col min="9" max="9" width="15.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>589.29999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1691,7 +1704,7 @@
         <v>21.934999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -1720,119 +1733,119 @@
         <v>11.363</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <f t="shared" ref="B12:G12" si="0">B10-B11</f>
         <v>4.8740000000000006</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f t="shared" si="0"/>
         <v>6.0090000000000003</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>6.8849999999999998</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>7.6900000000000013</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>8.4829999999999988</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f t="shared" si="0"/>
         <v>9.1889999999999983</v>
       </c>
-      <c r="H12" s="7">
-        <f t="shared" ref="H12:I12" si="1">H10-H11</f>
+      <c r="H12" s="6">
+        <f t="shared" ref="H12" si="1">H10-H11</f>
         <v>9.9169999999999998</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f>I10-I11</f>
         <v>10.571999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <f t="shared" ref="B13:G13" si="2">B12^2</f>
         <v>23.755876000000004</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <f t="shared" si="2"/>
         <v>36.108081000000006</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f t="shared" si="2"/>
         <v>47.403224999999999</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f t="shared" si="2"/>
         <v>59.13610000000002</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" si="2"/>
         <v>71.961288999999979</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f t="shared" si="2"/>
         <v>84.437720999999968</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <f t="shared" ref="H13:I13" si="3">H12^2</f>
         <v>98.34688899999999</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f t="shared" si="3"/>
         <v>111.76718399999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <f>(B13-C17*B9-D17)^2</f>
-        <v>0.30798349532680253</v>
-      </c>
-      <c r="C14" s="8">
+        <v>0.88624980697084332</v>
+      </c>
+      <c r="C14" s="7">
         <f>(C13-C17*C9-D17)^2</f>
-        <v>0.34349269680626232</v>
-      </c>
-      <c r="D14" s="8">
+        <v>0.60731691389113007</v>
+      </c>
+      <c r="D14" s="7">
         <f>(D13-C17*D9-D17)^2</f>
         <v>0.19347559427765026</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f>(E13-C17*E9-D17)^2</f>
-        <v>1.056925281293027</v>
-      </c>
-      <c r="F14" s="8">
+        <v>1.4915532187558858</v>
+      </c>
+      <c r="F14" s="7">
         <f>(F13-C17*F9-D17)^2</f>
-        <v>0.27453913409468156</v>
-      </c>
-      <c r="G14" s="8">
+        <v>0.82884751695111847</v>
+      </c>
+      <c r="G14" s="7">
         <f>(G13-C17*G9-D17)^2</f>
-        <v>0.13587917726430884</v>
-      </c>
-      <c r="H14" s="10">
+        <v>0.89924755702129433</v>
+      </c>
+      <c r="H14" s="9">
         <f>(H13-(C17*H9+D17))^2</f>
-        <v>1.4870947991203725</v>
-      </c>
-      <c r="I14" s="10">
-        <f>(I13-(D17*I9+E17))^2</f>
-        <v>754772.29251471802</v>
+        <v>0.19942775267715379</v>
+      </c>
+      <c r="I14" s="9">
+        <f>(I13-(C17*I9+D17))^2</f>
+        <v>1.8294194553068055</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1860,135 +1873,103 @@
       <c r="I16" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="J16" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <f>AVERAGE(B9:H9)</f>
-        <v>25</v>
-      </c>
-      <c r="B17" s="7">
-        <f>AVERAGE(B13:H13)</f>
-        <v>60.164168714285708</v>
-      </c>
-      <c r="C17" s="7">
-        <f>SLOPE(B13:H13,B9:H9)</f>
-        <v>2.464217021428571</v>
-      </c>
-      <c r="D17" s="9">
-        <f>INTERCEPT(B13:H13,B9:H9)</f>
-        <v>-1.441256821428567</v>
-      </c>
-      <c r="E17" s="7">
+    <row r="17" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <f>AVERAGE(B9:I9)</f>
+        <v>27.5</v>
+      </c>
+      <c r="B17" s="6">
+        <f>AVERAGE(B13:I13)</f>
+        <v>66.614545624999991</v>
+      </c>
+      <c r="C17" s="6">
+        <f>SLOPE(B13:I13,B9:I9)</f>
+        <v>2.5028616023809516</v>
+      </c>
+      <c r="D17" s="8">
+        <f>INTERCEPT(B13:I13,B9:I9)</f>
+        <v>-2.2141484404761798</v>
+      </c>
+      <c r="E17" s="6">
         <f>C17/(4*A8)*1000000</f>
-        <v>1045.4000599985454</v>
-      </c>
-      <c r="F17" s="7">
+        <v>1061.7943332686882</v>
+      </c>
+      <c r="F17" s="6">
         <f>VAR(B9:I9)*7</f>
         <v>1050</v>
       </c>
-      <c r="G17" s="7">
-        <f>SQRT(SUM(B14:H14)/5)</f>
-        <v>0.8717098345416443</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="G17" s="6">
+        <f>SQRT(SUM(B14:I14)/6)</f>
+        <v>1.075138581443642</v>
+      </c>
+      <c r="H17" s="6">
         <f>G17/SQRT(F17)</f>
-        <v>2.6901549532935318E-2</v>
-      </c>
-      <c r="I17" s="11">
+        <v>3.3179496958049073E-2</v>
+      </c>
+      <c r="I17" s="6">
         <f>H17/(4*A8)*1000000</f>
-        <v>11.412501923016849</v>
-      </c>
-      <c r="J17" t="str">
-        <f>TEXT(I17,"0.0000")</f>
-        <v>11.4125</v>
-      </c>
-      <c r="K17">
-        <f>J17+1</f>
-        <v>12.4125</v>
+        <v>14.07580899289372</v>
+      </c>
+      <c r="J17" s="6">
+        <f>INDEX(A20:B24,3,1)</f>
+        <v>0.99894668205671266</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I18" s="12" t="s">
-        <v>25</v>
-      </c>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="11"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="13">
-        <f>INDEX(B25:C29,3,1)</f>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" cm="1">
+        <f t="array" ref="A20:B24">LINEST(B13:I13,B9:I9,,TRUE)</f>
+        <v>2.502861602380952</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-2.214148440476194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>3.3179496958049087E-2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.98844834403240567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>0.99894668205671266</v>
       </c>
+      <c r="B22" s="1">
+        <v>1.0751385814436427</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>5690.2857589555315</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" cm="1">
-        <f t="array" ref="B25:C29">LINEST(B13:I13,B9:I9,,TRUE)</f>
-        <v>2.502861602380952</v>
-      </c>
-      <c r="C25">
-        <v>-2.214148440476194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>3.3179496958049087E-2</v>
-      </c>
-      <c r="C26">
-        <v>0.98844834403240567</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>0.99894668205671266</v>
-      </c>
-      <c r="C27">
-        <v>1.0751385814436427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>5690.2857589555315</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B29">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>6577.5320107065927</v>
       </c>
-      <c r="C29">
+      <c r="B24" s="1">
         <v>6.9355378158518883</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/牛顿环.xlsx
+++ b/牛顿环.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD99F68D-FD51-45E0-8F2D-C9321EB7E36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948E15CA-88C0-42D8-829A-BD0D6A8009CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,28 +56,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>干涉级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>干涉环左位置/mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>干涉环右位置/mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直径/mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直径平方/mm^2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>钠灯波长/nm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -86,15 +70,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>y平均</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小二乘斜率a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小二乘截距b</t>
+    <t>x残差平方和Sxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色格子：书上或ppt上给定的数据，一般不需要改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色格子：自动输出数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛顿环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Posted on https://github.com/Axolyz/fuck-nku-physics-experiments.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附：最小二乘参数表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干涉环左位置/mm 3dp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干涉环右位置/mm 3dp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径/mm 3dp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">残差平方 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径平方/mm^2 3dp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R的不确定度/mm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -102,11 +130,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>残差平方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x残差平方和Sxx</t>
+    <t>最小二乘不确定度μb/mm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -114,39 +138,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最小二乘不确定度μb/mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R的不确定度/mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色格子：书上或ppt上给定的数据，一般不需要改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄色格子：自动输出数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛顿环</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Posted on https://github.com/Axolyz/fuck-nku-physics-experiments.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>附：最小二乘参数表</t>
+    <t>y平均 3dp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小二乘斜率a 5sd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小二乘截距b 5sd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留位数后(与μD对齐位数)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留位数后(最高次有效数字为1,2保留两位,反之保留一位)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -154,6 +162,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000E+00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -256,25 +268,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -447,7 +461,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$13:$I$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000_ </c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>23.755876000000004</c:v>
@@ -577,7 +591,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1268,13 +1282,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1591,54 +1605,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1677,169 +1691,169 @@
     </row>
     <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
+        <v>11</v>
+      </c>
+      <c r="B10" s="13">
         <v>19.533000000000001</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="13">
         <v>19.991</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="13">
         <v>20.366</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="13">
         <v>20.734000000000002</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="13">
         <v>20.795999999999999</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="13">
         <v>21.100999999999999</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="13">
         <v>21.631</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="13">
         <v>21.934999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4">
+        <v>12</v>
+      </c>
+      <c r="B11" s="13">
         <v>14.659000000000001</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="13">
         <v>13.981999999999999</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="13">
         <v>13.481</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="13">
         <v>13.044</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="13">
         <v>12.313000000000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="13">
         <v>11.912000000000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="13">
         <v>11.714</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="13">
         <v>11.363</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
         <f t="shared" ref="B12:G12" si="0">B10-B11</f>
         <v>4.8740000000000006</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="9">
         <f t="shared" si="0"/>
         <v>6.0090000000000003</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>6.8849999999999998</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="9">
         <f t="shared" si="0"/>
         <v>7.6900000000000013</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>8.4829999999999988</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>9.1889999999999983</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="9">
         <f t="shared" ref="H12" si="1">H10-H11</f>
         <v>9.9169999999999998</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="9">
         <f>I10-I11</f>
         <v>10.571999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9">
         <f t="shared" ref="B13:G13" si="2">B12^2</f>
         <v>23.755876000000004</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="9">
         <f t="shared" si="2"/>
         <v>36.108081000000006</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="9">
         <f t="shared" si="2"/>
         <v>47.403224999999999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="9">
         <f t="shared" si="2"/>
         <v>59.13610000000002</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="9">
         <f t="shared" si="2"/>
         <v>71.961288999999979</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="9">
         <f t="shared" si="2"/>
         <v>84.437720999999968</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="9">
         <f t="shared" ref="H13:I13" si="3">H12^2</f>
         <v>98.34688899999999</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="9">
         <f t="shared" si="3"/>
         <v>111.76718399999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
         <f>(B13-C17*B9-D17)^2</f>
         <v>0.88624980697084332</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>(C13-C17*C9-D17)^2</f>
         <v>0.60731691389113007</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f>(D13-C17*D9-D17)^2</f>
         <v>0.19347559427765026</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f>(E13-C17*E9-D17)^2</f>
         <v>1.4915532187558858</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f>(F13-C17*F9-D17)^2</f>
         <v>0.82884751695111847</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f>(G13-C17*G9-D17)^2</f>
         <v>0.89924755702129433</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <f>(H13-(C17*H9+D17))^2</f>
         <v>0.19942775267715379</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <f>(I13-(C17*I9+D17))^2</f>
         <v>1.8294194553068055</v>
       </c>
@@ -1847,129 +1861,146 @@
     <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="17" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <f>AVERAGE(B9:I9)</f>
         <v>27.5</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="9">
         <f>AVERAGE(B13:I13)</f>
         <v>66.614545624999991</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="10">
         <f>SLOPE(B13:I13,B9:I9)</f>
         <v>2.5028616023809516</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="11">
         <f>INTERCEPT(B13:I13,B9:I9)</f>
         <v>-2.2141484404761798</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f>C17/(4*A8)*1000000</f>
         <v>1061.7943332686882</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f>VAR(B9:I9)*7</f>
         <v>1050</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f>SQRT(SUM(B14:I14)/6)</f>
         <v>1.075138581443642</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f>G17/SQRT(F17)</f>
         <v>3.3179496958049073E-2</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f>H17/(4*A8)*1000000</f>
         <v>14.07580899289372</v>
       </c>
-      <c r="J17" s="6">
-        <f>INDEX(A20:B24,3,1)</f>
+      <c r="J17" s="5">
+        <f>INDEX(A22:B26,3,1)</f>
         <v>0.99894668205671266</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" cm="1">
-        <f t="array" ref="A20:B24">LINEST(B13:I13,B9:I9,,TRUE)</f>
+    <row r="18" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="5" t="str">
+        <f>IF(I17*10^INT(-LOG(ABS(I17)))&lt;0.3,FIXED(E17,1-INT(LOG(I17)),1),FIXED(E17,-INT(LOG(I17)),1))</f>
+        <v>1062</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f>IF(I17*10^INT(-LOG(ABS(I17)))&lt;0.3,FIXED(I17,1-INT(LOG(I17)),1),FIXED(I17,-INT(LOG(I17)),1))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" cm="1">
+        <f t="array" ref="A22:B26">LINEST(B13:I13,B9:I9,,TRUE)</f>
         <v>2.502861602380952</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B22" s="1">
         <v>-2.214148440476194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>3.3179496958049087E-2</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.98844834403240567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.99894668205671266</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.0751385814436427</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>5690.2857589555315</v>
+        <v>3.3179496958049087E-2</v>
       </c>
       <c r="B23" s="1">
-        <v>6</v>
+        <v>0.98844834403240567</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>0.99894668205671266</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.0751385814436427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>5690.2857589555315</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>6577.5320107065927</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B26" s="1">
         <v>6.9355378158518883</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
